--- a/LibMaster/Library/炉膛负压调节.xlsx
+++ b/LibMaster/Library/炉膛负压调节.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>炉膛负压调节</t>
   </si>
@@ -75,12 +75,36 @@
     <t>风量前馈指令保持</t>
   </si>
   <si>
+    <t>DI002</t>
+  </si>
+  <si>
+    <t>A送跳闸</t>
+  </si>
+  <si>
+    <t>DI003</t>
+  </si>
+  <si>
+    <t>B送跳闸</t>
+  </si>
+  <si>
     <t>OUTPUTS</t>
   </si>
   <si>
     <t>DESCRIPTION</t>
   </si>
   <si>
+    <t>AO001</t>
+  </si>
+  <si>
+    <t>A引指令</t>
+  </si>
+  <si>
+    <t>AO002</t>
+  </si>
+  <si>
+    <t>B引指令</t>
+  </si>
+  <si>
     <t>PARAMETERS</t>
   </si>
   <si>
@@ -94,6 +118,9 @@
   </si>
   <si>
     <t>FB001</t>
+  </si>
+  <si>
+    <t>炉膛压力选择</t>
   </si>
   <si>
     <t>Page count</t>
@@ -125,7 +152,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -140,6 +167,7 @@
       <b val="1"/>
       <color rgb="00FFFFFF"/>
     </font>
+    <font/>
   </fonts>
   <fills count="5">
     <fill>
@@ -158,7 +186,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
+        <fgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -199,7 +227,7 @@
     </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -497,7 +525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,7 +588,7 @@
       <c r="C7" s="4" t="n"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -569,103 +597,134 @@
       <c r="C8" s="4" t="n"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>11</v>
+      <c r="A9" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" s="4" t="n"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" s="4" t="n"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="4" t="n"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4" t="n"/>
     </row>
-    <row r="13" spans="1:6"/>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4" t="n"/>
+    </row>
+    <row r="14" spans="1:6"/>
     <row r="15" spans="1:6">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6"/>
+      <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="4" t="n"/>
+      <c r="D17" s="4" t="n"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="4" t="n"/>
+      <c r="D18" s="4" t="n"/>
+    </row>
+    <row r="19" spans="1:6"/>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="4" t="s"/>
-      <c r="C19" s="4" t="n"/>
-      <c r="D19" s="4" t="n"/>
-      <c r="E19" s="4" t="n"/>
-      <c r="F19" s="4" t="n"/>
+      <c r="E21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="4" t="n"/>
+      <c r="D22" s="4" t="n"/>
+      <c r="E22" s="4" t="n"/>
+      <c r="F22" s="4" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A20:F20"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -687,7 +746,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B1" t="n">
         <v>6</v>
@@ -695,25 +754,25 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
